--- a/docs/lista componentes.xlsx
+++ b/docs/lista componentes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Arriquitaun2.0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>part</t>
   </si>
@@ -59,9 +59,6 @@
     <t>598-8210-107F</t>
   </si>
   <si>
-    <t>needed</t>
-  </si>
-  <si>
     <t>ordered</t>
   </si>
   <si>
@@ -197,24 +194,12 @@
     <t>https://eu.mouser.com/ProductDetail/NDK/NX3225SA-12MHZ-STD-CSR-3?qs=%2Fha2pyFadui%252B%2FfTihT3HjX%2FcrMgrtCOSaBVfGyFjd%2Ft6AdGqs1rg%2FjS3WCcGKRyf</t>
   </si>
   <si>
-    <t>r 12 k</t>
-  </si>
-  <si>
-    <t>r 510</t>
-  </si>
-  <si>
     <t>c 100 n</t>
   </si>
   <si>
-    <t>huellas todas 1206</t>
-  </si>
-  <si>
     <t>c 10 u</t>
   </si>
   <si>
-    <t>pines</t>
-  </si>
-  <si>
     <t>mosfets</t>
   </si>
   <si>
@@ -249,23 +234,60 @@
   </si>
   <si>
     <t>https://www.mouser.es/ProductDetail/Bourns/CR1206-JW-102ELF?qs=sGAEpiMZZMtlubZbdhIBIFLHRuY0Wf8zbyI2xCvKwW0%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR1206-FX-1202ELF </t>
+  </si>
+  <si>
+    <t>r 12 k 1%</t>
+  </si>
+  <si>
+    <t>https://www.mouser.es/ProductDetail/Bourns/CR1206-FX-1202ELF?qs=sGAEpiMZZMtlubZbdhIBICIt3wBox2Qh%2Fse2nz%2Fumso%3D</t>
+  </si>
+  <si>
+    <t>CR1206-FX-5100ELF</t>
+  </si>
+  <si>
+    <t>r 510 1%</t>
+  </si>
+  <si>
+    <t>https://www.mouser.es/ProductDetail/Bourns/CR1206-FX-5100ELF?qs=sGAEpiMZZMtlubZbdhIBIKcL8oyIJJKeNi6qwlkbLpY%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1206C104M5RAC </t>
+  </si>
+  <si>
+    <t>https://www.mouser.es/ProductDetail/KEMET/C1206C104M5RAC?qs=sGAEpiMZZMsh%252B1woXyUXj3184R26%252BgbNee62FYE84qg%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMK316BJ106KL-T </t>
+  </si>
+  <si>
+    <t>https://www.mouser.es/ProductDetail/Taiyo-Yuden/LMK316BJ106KL-T?qs=sGAEpiMZZMsh%252B1woXyUXj7c1PCWacDCMBG0g9eBsMyQ%3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSW-101-07-TM-S </t>
+  </si>
+  <si>
+    <t>needed x 1</t>
+  </si>
+  <si>
+    <t>needed x 3</t>
+  </si>
+  <si>
+    <t>https://www.mouser.es/ProductDetail/Samtec/TSW-106-07-TM-S?qs=sGAEpiMZZMvlX3nhDDO4AC5yIY7PTkfx4Fy2hijE3kI%3D</t>
+  </si>
+  <si>
+    <t>pines fila de 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -299,18 +321,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -592,574 +618,842 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.7109375" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" style="2" customWidth="1"/>
-    <col min="8" max="11" width="12.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="142.28515625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="30.7109375" style="2"/>
+    <col min="2" max="2" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="142.28515625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="30.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <f>3*C2</f>
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
         <v>4.38</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="1">
         <v>43.1</v>
       </c>
-      <c r="K2" s="2">
-        <f>C2*E2</f>
+      <c r="L2" s="1">
+        <f>C2*F2</f>
         <v>4.38</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D30" si="0">3*C3</f>
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.78</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="1">
         <v>7.03</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K18" si="0">C3*E3</f>
+      <c r="L3" s="1">
+        <f>C3*F3</f>
         <v>0.78</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>9</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.4</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="1">
         <v>2.25</v>
       </c>
-      <c r="K4" s="2">
-        <f t="shared" si="0"/>
+      <c r="L4" s="1">
+        <f>C4*F4</f>
         <v>3.6</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="L5" s="1">
+        <f>C5*F5</f>
+        <v>0.31</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="L6" s="1">
+        <f>C6*F6</f>
+        <v>0.26</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="K5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.31</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>0.26</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="L7" s="1">
+        <f>C7*F7</f>
+        <v>1.62</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3">
+    </row>
+    <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="H8" s="1">
+        <v>54.1</v>
+      </c>
+      <c r="L8" s="1">
+        <f>C8*F8</f>
+        <v>5.86</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="H9" s="1">
+        <v>23.5</v>
+      </c>
+      <c r="L9" s="1">
+        <f>C9*F9</f>
+        <v>2.66</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="L10" s="1">
+        <f>C10*F10</f>
+        <v>0.79</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.24</v>
+      </c>
+      <c r="I11" s="1">
+        <v>114.5</v>
+      </c>
+      <c r="L11" s="1">
+        <f>C11*F11</f>
+        <v>5.24</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="L12" s="1">
+        <f>C12*F12</f>
+        <v>0.35</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.21</v>
+      </c>
+      <c r="L13" s="1">
+        <f>C13*F13</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="L14" s="1">
+        <f>C14*F14</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>1.62</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5.48</v>
+      </c>
+      <c r="L15" s="1">
+        <f>C15*F15</f>
+        <v>1.42</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H16" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="L16" s="1">
+        <f>C16*F16</f>
+        <v>1.86</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="L17" s="1">
+        <f>C17*F17</f>
+        <v>0.62</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="L18" s="1">
+        <f>C18*F18</f>
+        <v>0.42</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1">
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L22" s="1">
+        <f>C22*F22</f>
+        <v>2.25</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="1">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E23" s="1">
+        <v>100</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="L23" s="1">
+        <f>C23*F23</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="L24" s="1">
+        <f>C24*F24</f>
+        <v>0.09</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L25" s="1">
+        <f>C25*F25</f>
+        <v>0.44</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="1">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5.86</v>
-      </c>
-      <c r="G8" s="2">
-        <v>54.1</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="0"/>
-        <v>5.86</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2.66</v>
-      </c>
-      <c r="G9" s="2">
-        <v>23.5</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="0"/>
-        <v>2.66</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.79</v>
-      </c>
-      <c r="G10" s="2">
-        <v>7.06</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.79</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>5.24</v>
-      </c>
-      <c r="H11" s="2">
-        <v>114.5</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.24</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.35</v>
-      </c>
-      <c r="G12" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.21</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G14" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="K14" s="2">
-        <f t="shared" si="0"/>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="3">
-        <v>2</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="G15" s="2">
-        <v>5.48</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="0"/>
-        <v>1.42</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.86</v>
-      </c>
-      <c r="G16" s="2">
-        <v>17.8</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>1.86</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="G17" s="2">
-        <v>5.13</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.62</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K19" s="2">
-        <f>SUM(K3:K18)</f>
-        <v>26.51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="3">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="3">
-        <v>10</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E27" s="1">
+        <v>100</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="K27" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="L27" s="1">
+        <f>C27*F27</f>
+        <v>2.7</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="L28" s="1">
+        <f>C28*F28</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="3">
-        <v>20</v>
+        <v>84</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E30" s="1">
+        <v>15</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="K30" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="L30" s="1">
+        <f>C30*F30</f>
+        <v>1.52</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <f>SUM(L3:L29)</f>
+        <v>33.99</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId1"/>
+    <hyperlink ref="M3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
